--- a/xlsx/帕特里克·布莱克特_intext.xlsx
+++ b/xlsx/帕特里克·布莱克特_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="594">
   <si>
     <t>帕特里克·布莱克特</t>
   </si>
@@ -107,19 +107,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E7%B8%BE%E5%8B%B3%E7%AB%A0</t>
   </si>
   <si>
-    <t>功績勳章</t>
+    <t>功绩勳章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E8%AD%BD%E5%8B%B3%E4%BD%8D</t>
   </si>
   <si>
-    <t>名譽勳位</t>
+    <t>名誉勳位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E5%AD%B8%E6%9C%83%E9%99%A2%E5%A3%AB</t>
   </si>
   <si>
-    <t>皇家學會院士</t>
+    <t>皇家学会院士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E7%9A%87%E5%AE%B6%E5%AD%A6%E4%BC%9A</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%96%AF%E7%89%B9%E6%8B%89%E7%89%B9%EF%BC%8C%E7%AC%AC%E4%B8%89%E4%BB%A3%E7%91%9E%E5%88%A9%E7%94%B7%E7%88%B5</t>
   </si>
   <si>
-    <t>約翰·斯特拉特，第三代瑞利男爵</t>
+    <t>约翰·斯特拉特，第三代瑞利男爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%C2%B7%E8%8E%B1%E7%BA%B3%E5%BE%B7</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%85%8B%C2%B7%E5%8D%A1%E6%9C%AB%E6%9E%97%C2%B7%E6%98%82%E5%85%A7%E6%96%AF</t>
   </si>
   <si>
-    <t>海克·卡末林·昂內斯</t>
+    <t>海克·卡末林·昂内斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%96%AF%C2%B7%E5%86%AF%C2%B7%E5%8A%B3%E5%8E%84</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E6%B9%AF%E5%A7%86%E6%A3%AE%C2%B7%E9%87%8C%E6%96%AF%C2%B7%E5%A8%81%E7%88%BE%E9%81%9C</t>
   </si>
   <si>
-    <t>查爾斯·湯姆森·里斯·威爾遜</t>
+    <t>查尔斯·汤姆森·里斯·威尔逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%96%87%C2%B7%E7%90%86%E6%9F%A5%E6%A3%AE</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E5%85%A7%E6%96%AF%C2%B7%E5%BB%B6%E6%A3%AE</t>
   </si>
   <si>
-    <t>約翰內斯·延森</t>
+    <t>约翰内斯·延森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E6%B1%A4%E6%96%AF</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E8%B2%BB%E6%9B%BC</t>
   </si>
   <si>
-    <t>理查德·費曼</t>
+    <t>理查德·费曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E5%8D%A1%E6%96%AF%E7%89%B9%E5%8B%92</t>
@@ -671,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%C2%B7%E5%A5%88%E7%88%BE</t>
   </si>
   <si>
-    <t>路易·奈爾</t>
+    <t>路易·奈尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8D%9A%E5%B0%94%C2%B7%E5%BE%B7%E5%A5%88%E4%BB%80</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E5%B4%8E%E7%8E%B2%E6%96%BC%E5%A5%88</t>
   </si>
   <si>
-    <t>江崎玲於奈</t>
+    <t>江崎玲于奈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%93%A6%E5%B0%94%C2%B7%E8%B4%BE%E5%9F%83%E5%BC%97</t>
@@ -755,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%87%A1%E6%89%B6%E7%B4%AF%E5%85%8B</t>
   </si>
   <si>
-    <t>約翰·凡扶累克</t>
+    <t>约翰·凡扶累克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%88%97%E6%98%82%E5%B0%BC%E5%A4%9A%E7%BB%B4%E5%A5%87%C2%B7%E5%8D%A1%E7%9A%AE%E5%AF%9F</t>
@@ -821,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E6%96%AF%C2%B7%E5%A8%81%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>肯尼斯·威爾森</t>
+    <t>肯尼斯·威尔森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E5%B8%83%E6%8B%89%E9%A9%AC%E5%B0%BC%E6%89%AC%C2%B7%E9%92%B1%E5%BE%B7%E6%8B%89%E5%A1%9E%E5%8D%A1</t>
@@ -887,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%98%82%C2%B7%E8%90%8A%E5%BE%B7%E6%9B%BC</t>
   </si>
   <si>
-    <t>利昂·萊德曼</t>
+    <t>利昂·莱德曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%B0%94%E6%96%87%C2%B7%E6%96%BD%E7%93%A6%E8%8C%A8</t>
@@ -1013,7 +1013,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E5%8B%9E%E5%A4%AB%E6%9E%97</t>
   </si>
   <si>
-    <t>羅伯特·勞夫林</t>
+    <t>罗伯特·劳夫林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E6%96%AF%E7%89%B9%C2%B7%E6%96%BD%E7%89%B9%E9%BB%98</t>
@@ -1055,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%85%8B%C2%B7%E5%9F%BA%E7%88%BE%E6%AF%94</t>
   </si>
   <si>
-    <t>傑克·基爾比</t>
+    <t>杰克·基尔比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E5%85%8B%C2%B7%E5%BA%B7%E5%A5%88%E5%B0%94</t>
@@ -1067,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%88%BE%E5%A4%AB%E5%B2%A1%C2%B7%E5%85%8B%E7%89%B9%E5%8B%92</t>
   </si>
   <si>
-    <t>沃爾夫岡·克特勒</t>
+    <t>沃尔夫冈·克特勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E5%A8%81%E6%9B%BC</t>
@@ -1109,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%C2%B7%E8%90%8A%E6%A0%BC%E7%89%B9</t>
   </si>
   <si>
-    <t>安東尼·萊格特</t>
+    <t>安东尼·莱格特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%C2%B7%E6%A0%BC%E5%A8%84%E6%96%AF</t>
@@ -1205,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%8C%95</t>
   </si>
   <si>
-    <t>高錕</t>
+    <t>高锟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E7%83%88%C2%B7%E6%B5%B7%E5%A7%86</t>
@@ -1331,7 +1331,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%99%AE%E5%88%A9%E7%8D%8E%E7%AB%A0</t>
   </si>
   <si>
-    <t>科普利獎章</t>
+    <t>科普利奖章</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/David_Keilin</t>
@@ -1445,7 +1445,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E8%B5%AB%E8%83%A5%E9%BB%8E</t>
   </si>
   <si>
-    <t>安德魯·赫胥黎</t>
+    <t>安德鲁·赫胥黎</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/W._V._D._Hodge</t>
@@ -1517,7 +1517,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E9%81%93%E5%A4%AB%C2%B7%E4%BD%A9%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>魯道夫·佩爾斯</t>
+    <t>鲁道夫·佩尔斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Robin_Hill_(biochemist)</t>
@@ -1595,7 +1595,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%9F%8B%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>詹姆斯·韋斯特</t>
+    <t>詹姆斯·韦斯特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E7%8F%AD%E5%85%8B%E6%96%AF</t>
@@ -1613,19 +1613,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E4%BB%A3%E7%B6%AD%E6%98%8E%E9%A0%93%E4%BC%AF%E7%88%B5%E6%96%AF%E8%B3%93%E5%A1%9E%C2%B7%E5%BA%B7%E6%99%AE%E9%A0%93</t>
   </si>
   <si>
-    <t>第一代維明頓伯爵斯賓塞·康普頓</t>
+    <t>第一代维明顿伯爵斯宾塞·康普顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E5%B8%95%E6%A3%AE%E6%80%9D%EF%BC%8C%E7%AC%AC%E4%B8%89%E4%BB%A3%E7%BE%85%E6%96%AF%E4%BC%AF%E7%88%B5</t>
   </si>
   <si>
-    <t>威廉·帕森思，第三代羅斯伯爵</t>
+    <t>威廉·帕森思，第三代罗斯伯爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%AF%94%E5%BE%B7%E7%88%BE%C2%B7%E8%89%BE%E9%87%8C</t>
   </si>
   <si>
-    <t>喬治·比德爾·艾里</t>
+    <t>乔治·比德尔·艾里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E9%81%93%E5%B0%94%E9%A1%BF%C2%B7%E8%83%A1%E5%85%8B</t>
@@ -1667,9 +1667,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%96%AF%E7%89%B9%E6%8B%89%E7%89%B9%EF%BC%8C%E7%AC%AC%E4%B8%89%E4%BB%A3%E7%91%9E%E5%88%A9%E7%94%B7%E7%88%B5</t>
   </si>
   <si>
-    <t>约翰·斯特拉特，第三代瑞利男爵</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E5%85%8B%E9%B2%81%E5%85%8B%E6%96%AF</t>
   </si>
   <si>
@@ -1709,7 +1706,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E8%8F%AF%E5%BE%B7%C2%B7%E5%BC%97%E6%B4%9B%E9%87%8C%EF%BC%8C%E5%BC%97%E6%B4%9B%E9%87%8C%E7%94%B7%E7%88%B5</t>
   </si>
   <si>
-    <t>霍華德·弗洛里，弗洛里男爵</t>
+    <t>霍华德·弗洛里，弗洛里男爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E9%87%8C%E6%96%AF</t>
@@ -1733,7 +1730,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1751,7 +1748,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1769,7 +1766,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1781,19 +1778,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E8%AD%9C%E7%B3%BB%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>數學譜系計畫</t>
+    <t>数学谱系计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -10261,7 +10258,7 @@
         <v>549</v>
       </c>
       <c r="F280" t="s">
-        <v>550</v>
+        <v>54</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10287,10 +10284,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>550</v>
+      </c>
+      <c r="F281" t="s">
         <v>551</v>
-      </c>
-      <c r="F281" t="s">
-        <v>552</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10345,10 +10342,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>552</v>
+      </c>
+      <c r="F283" t="s">
         <v>553</v>
-      </c>
-      <c r="F283" t="s">
-        <v>554</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10403,10 +10400,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>554</v>
+      </c>
+      <c r="F285" t="s">
         <v>555</v>
-      </c>
-      <c r="F285" t="s">
-        <v>556</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10461,10 +10458,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>556</v>
+      </c>
+      <c r="F287" t="s">
         <v>557</v>
-      </c>
-      <c r="F287" t="s">
-        <v>558</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10490,10 +10487,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>558</v>
+      </c>
+      <c r="F288" t="s">
         <v>559</v>
-      </c>
-      <c r="F288" t="s">
-        <v>560</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10519,10 +10516,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>560</v>
+      </c>
+      <c r="F289" t="s">
         <v>561</v>
-      </c>
-      <c r="F289" t="s">
-        <v>562</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10577,10 +10574,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>562</v>
+      </c>
+      <c r="F291" t="s">
         <v>563</v>
-      </c>
-      <c r="F291" t="s">
-        <v>564</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10751,10 +10748,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>564</v>
+      </c>
+      <c r="F297" t="s">
         <v>565</v>
-      </c>
-      <c r="F297" t="s">
-        <v>566</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10780,10 +10777,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
+        <v>566</v>
+      </c>
+      <c r="F298" t="s">
         <v>567</v>
-      </c>
-      <c r="F298" t="s">
-        <v>568</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10809,10 +10806,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>568</v>
+      </c>
+      <c r="F299" t="s">
         <v>569</v>
-      </c>
-      <c r="F299" t="s">
-        <v>570</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10838,10 +10835,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>570</v>
+      </c>
+      <c r="F300" t="s">
         <v>571</v>
-      </c>
-      <c r="F300" t="s">
-        <v>572</v>
       </c>
       <c r="G300" t="n">
         <v>3</v>
@@ -10867,10 +10864,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
+        <v>572</v>
+      </c>
+      <c r="F301" t="s">
         <v>573</v>
-      </c>
-      <c r="F301" t="s">
-        <v>574</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10896,10 +10893,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
+        <v>574</v>
+      </c>
+      <c r="F302" t="s">
         <v>575</v>
-      </c>
-      <c r="F302" t="s">
-        <v>576</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -10925,10 +10922,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
+        <v>576</v>
+      </c>
+      <c r="F303" t="s">
         <v>577</v>
-      </c>
-      <c r="F303" t="s">
-        <v>578</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -10954,10 +10951,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
+        <v>578</v>
+      </c>
+      <c r="F304" t="s">
         <v>579</v>
-      </c>
-      <c r="F304" t="s">
-        <v>580</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -10983,10 +10980,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
+        <v>580</v>
+      </c>
+      <c r="F305" t="s">
         <v>581</v>
-      </c>
-      <c r="F305" t="s">
-        <v>582</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11012,10 +11009,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>582</v>
+      </c>
+      <c r="F306" t="s">
         <v>583</v>
-      </c>
-      <c r="F306" t="s">
-        <v>584</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11041,10 +11038,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
+        <v>584</v>
+      </c>
+      <c r="F307" t="s">
         <v>585</v>
-      </c>
-      <c r="F307" t="s">
-        <v>586</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11070,10 +11067,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
+        <v>586</v>
+      </c>
+      <c r="F308" t="s">
         <v>587</v>
-      </c>
-      <c r="F308" t="s">
-        <v>588</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11099,10 +11096,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
+        <v>588</v>
+      </c>
+      <c r="F309" t="s">
         <v>589</v>
-      </c>
-      <c r="F309" t="s">
-        <v>590</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11128,10 +11125,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
+        <v>590</v>
+      </c>
+      <c r="F310" t="s">
         <v>591</v>
-      </c>
-      <c r="F310" t="s">
-        <v>592</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11157,10 +11154,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
+        <v>592</v>
+      </c>
+      <c r="F311" t="s">
         <v>593</v>
-      </c>
-      <c r="F311" t="s">
-        <v>594</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
